--- a/Classification Results/Augmented Data/Full VPOP Classification/By Lab/Nelson 2 (34, 0, 26, 12, 41)/Ableson 7 (0, 12, 11, 17, 44)/NCDE_32nodes_Uniform0.05Virtual_Nelson(34, 0, 26, 12, 41)_Ableson(0, 12, 11, 17, 44)_100perPatient_batchsize200_2maxITER_StandardizeAll_smoothing0_dropout0_byLab.xlsx
+++ b/Classification Results/Augmented Data/Full VPOP Classification/By Lab/Nelson 2 (34, 0, 26, 12, 41)/Ableson 7 (0, 12, 11, 17, 44)/NCDE_32nodes_Uniform0.05Virtual_Nelson(34, 0, 26, 12, 41)_Ableson(0, 12, 11, 17, 44)_100perPatient_batchsize200_2maxITER_StandardizeAll_smoothing0_dropout0_byLab.xlsx
@@ -456,10 +456,10 @@
         <v>1</v>
       </c>
       <c r="D2">
-        <v>0.005603779807968639</v>
+        <v>0.00560353008272598</v>
       </c>
       <c r="E2">
-        <v>0.005603779807968639</v>
+        <v>0.00560353008272598</v>
       </c>
     </row>
     <row r="3" spans="1:7">
@@ -470,10 +470,10 @@
         <v>1</v>
       </c>
       <c r="D3">
-        <v>0.0407381830402733</v>
+        <v>0.04049788347242873</v>
       </c>
       <c r="E3">
-        <v>0.0407381830402733</v>
+        <v>0.04049788347242873</v>
       </c>
     </row>
     <row r="4" spans="1:7">
@@ -484,10 +484,10 @@
         <v>1</v>
       </c>
       <c r="D4">
-        <v>0.003161163998982154</v>
+        <v>0.003162751500676715</v>
       </c>
       <c r="E4">
-        <v>0.003161163998982154</v>
+        <v>0.003162751500676715</v>
       </c>
     </row>
     <row r="5" spans="1:7">
@@ -498,10 +498,10 @@
         <v>1</v>
       </c>
       <c r="D5">
-        <v>0.005286860524756245</v>
+        <v>0.005287047241691047</v>
       </c>
       <c r="E5">
-        <v>0.005286860524756245</v>
+        <v>0.005287047241691047</v>
       </c>
     </row>
     <row r="6" spans="1:7">
@@ -512,10 +512,10 @@
         <v>1</v>
       </c>
       <c r="D6">
-        <v>0.0740039582647022</v>
+        <v>0.07402200682465487</v>
       </c>
       <c r="E6">
-        <v>0.0740039582647022</v>
+        <v>0.07402200682465487</v>
       </c>
     </row>
     <row r="7" spans="1:7">
@@ -526,10 +526,10 @@
         <v>1</v>
       </c>
       <c r="D7">
-        <v>0.9949552679273467</v>
+        <v>0.9879630327676151</v>
       </c>
       <c r="E7">
-        <v>0.005044732072653324</v>
+        <v>0.0120369672323849</v>
       </c>
     </row>
     <row r="8" spans="1:7">
@@ -537,13 +537,13 @@
         <v>12</v>
       </c>
       <c r="C8" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D8">
-        <v>0.9945562362636244</v>
+        <v>0.05128823871843159</v>
       </c>
       <c r="E8">
-        <v>0.005443763736375562</v>
+        <v>0.9487117612815684</v>
       </c>
     </row>
     <row r="9" spans="1:7">
@@ -551,13 +551,13 @@
         <v>13</v>
       </c>
       <c r="C9" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D9">
-        <v>0.9939112998031079</v>
+        <v>0.05288793453929659</v>
       </c>
       <c r="E9">
-        <v>0.006088700196892116</v>
+        <v>0.9471120654607034</v>
       </c>
     </row>
     <row r="10" spans="1:7">
@@ -565,13 +565,13 @@
         <v>14</v>
       </c>
       <c r="C10" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D10">
-        <v>0.9946720021495472</v>
+        <v>0.09847752772220425</v>
       </c>
       <c r="E10">
-        <v>0.005327997850452793</v>
+        <v>0.9015224722777957</v>
       </c>
     </row>
     <row r="11" spans="1:7">
@@ -579,19 +579,19 @@
         <v>15</v>
       </c>
       <c r="C11" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D11">
-        <v>0.9947535538310602</v>
+        <v>0.1177659684766499</v>
       </c>
       <c r="E11">
-        <v>0.005246446168939767</v>
+        <v>0.8822340315233501</v>
       </c>
       <c r="F11">
-        <v>0.01597893424332142</v>
+        <v>1.051130056381226</v>
       </c>
       <c r="G11">
-        <v>1</v>
+        <v>0.6</v>
       </c>
     </row>
     <row r="12" spans="1:7">
@@ -605,10 +605,10 @@
         <v>1</v>
       </c>
       <c r="D12">
-        <v>0.003093451683406233</v>
+        <v>0.003089965693185638</v>
       </c>
       <c r="E12">
-        <v>0.003093451683406233</v>
+        <v>0.003089965693185638</v>
       </c>
     </row>
     <row r="13" spans="1:7">
@@ -619,10 +619,10 @@
         <v>1</v>
       </c>
       <c r="D13">
-        <v>9.884804630463054E-05</v>
+        <v>9.749542322470059E-05</v>
       </c>
       <c r="E13">
-        <v>9.884804630463054E-05</v>
+        <v>9.749542322470059E-05</v>
       </c>
     </row>
     <row r="14" spans="1:7">
@@ -633,10 +633,10 @@
         <v>1</v>
       </c>
       <c r="D14">
-        <v>0.001433471369391714</v>
+        <v>0.001431768515885918</v>
       </c>
       <c r="E14">
-        <v>0.001433471369391714</v>
+        <v>0.001431768515885918</v>
       </c>
     </row>
     <row r="15" spans="1:7">
@@ -647,10 +647,10 @@
         <v>1</v>
       </c>
       <c r="D15">
-        <v>0.0001871445655923723</v>
+        <v>0.0001870784816207065</v>
       </c>
       <c r="E15">
-        <v>0.0001871445655923723</v>
+        <v>0.0001870784816207065</v>
       </c>
     </row>
     <row r="16" spans="1:7">
@@ -661,10 +661,10 @@
         <v>1</v>
       </c>
       <c r="D16">
-        <v>0.0561415668622799</v>
+        <v>0.05683324498390609</v>
       </c>
       <c r="E16">
-        <v>0.0561415668622799</v>
+        <v>0.05683324498390609</v>
       </c>
     </row>
     <row r="17" spans="1:7">
@@ -675,10 +675,10 @@
         <v>1</v>
       </c>
       <c r="D17">
-        <v>0.9970417887048484</v>
+        <v>0.998441086860117</v>
       </c>
       <c r="E17">
-        <v>0.002958211295151614</v>
+        <v>0.001558913139882989</v>
       </c>
     </row>
     <row r="18" spans="1:7">
@@ -686,13 +686,13 @@
         <v>12</v>
       </c>
       <c r="C18" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D18">
-        <v>0.9966734410202898</v>
+        <v>0.003774482659735072</v>
       </c>
       <c r="E18">
-        <v>0.003326558979710237</v>
+        <v>0.9962255173402649</v>
       </c>
     </row>
     <row r="19" spans="1:7">
@@ -700,13 +700,13 @@
         <v>13</v>
       </c>
       <c r="C19" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D19">
-        <v>0.9964346376773949</v>
+        <v>6.442129377297509E-06</v>
       </c>
       <c r="E19">
-        <v>0.00356536232260507</v>
+        <v>0.9999935578706227</v>
       </c>
     </row>
     <row r="20" spans="1:7">
@@ -717,10 +717,10 @@
         <v>1</v>
       </c>
       <c r="D20">
-        <v>0.9967394531650212</v>
+        <v>0.6473810642075165</v>
       </c>
       <c r="E20">
-        <v>0.003260546834978784</v>
+        <v>0.3526189357924835</v>
       </c>
     </row>
     <row r="21" spans="1:7">
@@ -728,19 +728,19 @@
         <v>15</v>
       </c>
       <c r="C21" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D21">
-        <v>0.9967748952509968</v>
+        <v>0.01766068135839209</v>
       </c>
       <c r="E21">
-        <v>0.003225104749003171</v>
+        <v>0.982339318641608</v>
       </c>
       <c r="F21">
-        <v>0.007896105758845806</v>
+        <v>2.206826448440552</v>
       </c>
       <c r="G21">
-        <v>1</v>
+        <v>0.7</v>
       </c>
     </row>
   </sheetData>
